--- a/Mildred Dzre_Excel Capstone Project.xlsx
+++ b/Mildred Dzre_Excel Capstone Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mildr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F09F8-7A12-489D-A743-E66F4F5BE037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE55B19B-FD33-4A56-9A06-E633AB52A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,10 +191,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -354,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,23 +372,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -396,12 +392,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="482">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -417,6 +474,36 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="-0.249977111117893"/>
@@ -426,7 +513,370 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.249977111117893"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -440,9 +890,36 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <fill>
@@ -452,10 +929,32 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -472,6 +971,30 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="5" tint="-0.249977111117893"/>
@@ -486,100 +1009,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -630,9 +1060,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.249977111117893"/>
@@ -642,7 +1069,223 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -656,9 +1299,122 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <fill>
@@ -669,10 +1425,16 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <fill>
@@ -684,7 +1446,144 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,15 +1597,82 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -723,6 +1689,94 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="7" tint="-0.499984740745262"/>
@@ -737,7 +1791,1549 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -769,9 +3365,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Table-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="secondRowStripe" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="481"/>
+      <tableStyleElement type="firstRowStripe" dxfId="480"/>
+      <tableStyleElement type="secondRowStripe" dxfId="479"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1163,7 +3759,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>340295</c:v>
@@ -1260,7 +3856,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1786,7 +4382,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$H$2:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>89663</c:v>
@@ -1903,7 +4499,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3624,7 +6220,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$E$7:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>340295</c:v>
@@ -4103,25 +6699,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Australia</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>United States</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4130,28 +6726,28 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$E$14:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>267133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141056</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>131713</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>94745</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>141056</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155168</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>66782</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>173137</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>267133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,7 +6823,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5608,7 +8204,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$E$7:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>340295</c:v>
@@ -6269,7 +8865,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$H$2:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>89663</c:v>
@@ -6388,7 +8984,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6857,7 +9453,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$B$14:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4781.4250000000002</c:v>
@@ -6954,7 +9550,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7226,6 +9822,601 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.0315925209542231E-2"/>
+              <c:y val="-0.36574074074074081"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.0947775628626644E-2"/>
+              <c:y val="-0.27314814814814825"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.8052869116698903E-2"/>
+              <c:y val="-0.20833333333333343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.321083172147002E-2"/>
+              <c:y val="-0.20833333333333343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.805286911669881E-2"/>
+              <c:y val="-0.18981481481481483"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.7369439071565786E-3"/>
+              <c:y val="-0.17129629629629639"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.2894906511927788E-2"/>
+              <c:y val="-0.14351851851851852"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -7326,6 +10517,153 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0315925209542231E-2"/>
+                  <c:y val="-0.36574074074074081"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0947775628626644E-2"/>
+                  <c:y val="-0.27314814814814825"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8052869116698903E-2"/>
+                  <c:y val="-0.20833333333333343"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.321083172147002E-2"/>
+                  <c:y val="-0.20833333333333343"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.805286911669881E-2"/>
+                  <c:y val="-0.18981481481481483"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7369439071565786E-3"/>
+                  <c:y val="-0.17129629629629639"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2894906511927788E-2"/>
+                  <c:y val="-0.14351851851851852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5DBB-4489-B20A-ED6C2A3BE5B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -7411,7 +10749,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>340295</c:v>
@@ -7512,7 +10850,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7960,7 +11298,7 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$B$14:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4781.4250000000002</c:v>
@@ -8061,7 +11399,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8319,6 +11657,601 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.8550724637681138E-2"/>
+              <c:y val="-0.33796296296296297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.5507246376811551E-2"/>
+              <c:y val="-0.25462962962962965"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.4782608695652133E-2"/>
+              <c:y val="-0.2361111111111111"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.9420289855072461E-2"/>
+              <c:y val="-0.31018518518518512"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.782608695652174E-2"/>
+              <c:y val="-0.23148148148148148"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.318840579710145E-2"/>
+              <c:y val="-0.19907407407407407"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:tint val="60000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="46000">
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:shade val="40000"/>
+                  <a:satMod val="160000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="circle">
+              <a:fillToRect l="50000" t="155000" r="50000" b="-55000"/>
+            </a:path>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="14700000" algn="t" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="3.2463768115942031E-2"/>
+              <c:y val="-0.16666666666666666"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GH"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -8419,6 +12352,153 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8550724637681138E-2"/>
+                  <c:y val="-0.33796296296296297"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5507246376811551E-2"/>
+                  <c:y val="-0.25462962962962965"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4782608695652133E-2"/>
+                  <c:y val="-0.2361111111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9420289855072461E-2"/>
+                  <c:y val="-0.31018518518518512"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.782608695652174E-2"/>
+                  <c:y val="-0.23148148148148148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.318840579710145E-2"/>
+                  <c:y val="-0.19907407407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2463768115942031E-2"/>
+                  <c:y val="-0.16666666666666666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-66D1-4C4E-8D53-8F000988B3AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -8477,25 +12557,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Australia</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>Canada</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>United States</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8504,28 +12584,28 @@
             <c:numRef>
               <c:f>'One-Dimensional Pivot Table'!$E$14:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>267133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141056</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>131713</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>94745</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>141056</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155168</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>66782</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>173137</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>267133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8605,7 +12685,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15826,7 +19906,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t> 1,029,734 </a:t>
+            <a:t> $1,029,734 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-GH" sz="1800" b="1">
             <a:solidFill>
@@ -15906,7 +19986,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t> 4,834 </a:t>
+            <a:t> $4,834.43 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-GH" sz="1800" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -19340,51 +23420,54 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average Sales" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
+    <dataField name="Average Sales" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="167"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="8">
+  <formats count="10">
+    <format dxfId="440">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
+    <format dxfId="441">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="442">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="443">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="444">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="445">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="446">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="447">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="2">
@@ -19817,7 +23900,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="8">
         <item x="4"/>
         <item x="2"/>
@@ -19828,6 +23911,15 @@
         <item x="0"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0">
       <items count="15">
@@ -19854,25 +23946,25 @@
   </rowFields>
   <rowItems count="8">
     <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -19882,50 +23974,53 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sales by Country" fld="3" baseField="5" baseItem="0"/>
+    <dataField name="Sales by Country" fld="3" baseField="5" baseItem="0" numFmtId="167"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="17">
+  <formats count="10">
+    <format dxfId="456">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="455">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="454">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="453">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="452">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="451">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="450">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="449">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="448">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="9">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19940,6 +24035,90 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -20652,19 +24831,16 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sales per Month" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sales per Month" fld="3" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
+    <format dxfId="461">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="460">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="459">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="12">
@@ -20684,11 +24860,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="458">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="457">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="2">
@@ -21391,38 +25570,38 @@
     <dataField name="Percentage Sales by Category" fld="3" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="35">
+    <format dxfId="473">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="472">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="471">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="470">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="469">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="468">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="467">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="466">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="465">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="464">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21431,14 +25610,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="463">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="462">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -22215,59 +26394,77 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total Sales" fld="3" baseField="1" baseItem="1" numFmtId="165"/>
+    <dataField name="Total Sales" fld="3" baseField="1" baseItem="1" numFmtId="169"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="47">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
+  <formats count="18">
+    <format dxfId="429">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="430">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="431">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="432">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="433">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="434">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="435">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="436">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="437">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="438">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="439">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
+    <format dxfId="70">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="9">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -22282,6 +26479,90 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -22976,26 +27257,26 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Top 3 Sales by Product" fld="3" baseField="1" baseItem="1"/>
+    <dataField name="Top 3 Sales by Product" fld="3" baseField="1" baseItem="1" numFmtId="167"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="53">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
+    <format dxfId="478">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="477">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="476">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="475">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="474">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="12">
@@ -34746,20 +39027,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3690259-7726-4750-B77F-12F1B192EA40}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="29" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="8.375" customWidth="1"/>
@@ -34774,377 +39055,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="31">
         <v>340295</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>0.67305634270598036</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="26">
         <v>89663</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="32">
         <v>191257</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="20">
         <v>0.32694365729401964</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="27">
         <v>62762</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="32">
         <v>142439</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="27">
         <v>104566</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="32">
         <v>136945</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="27">
         <v>49474</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="32">
         <v>104438</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="27">
         <v>203339</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="32">
         <v>57281</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="34">
         <v>340295</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="27">
         <v>51600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="32">
         <v>57079</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="35">
         <v>191257</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="27">
         <v>80735</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="33">
         <v>1029734</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="35">
         <v>142439</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="27">
         <v>68994</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="28">
         <v>673991</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="27">
         <v>102433</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="27">
         <v>52615</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="G12" s="16" t="s">
+      <c r="B12" s="30"/>
+      <c r="G12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="27">
         <v>73740</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="27">
         <v>89813</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="26">
         <v>4781.4250000000002</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="26">
+        <v>267133</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1029734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="27">
+        <v>4792.8873239436616</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27">
+        <v>173137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>4406.2307692307695</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="27">
+        <v>155168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="27">
+        <v>5275.5185185185182</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="27">
+        <v>141056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="27">
+        <v>5072.0370370370374</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E18" s="27">
         <v>131713</v>
       </c>
-      <c r="G14" s="20" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="27">
+        <v>5189</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="27">
+        <v>94745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27">
+        <v>4351.583333333333</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="27">
+        <v>66782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="21">
+      <c r="B21" s="28">
+        <v>4834.4319248826287</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="28">
         <v>1029734</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17">
-        <v>4792.8873239436616</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="17">
-        <v>94745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17">
-        <v>4406.2307692307695</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="17">
-        <v>141056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17">
-        <v>5275.5185185185182</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="17">
-        <v>155168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="17">
-        <v>5072.0370370370374</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="17">
-        <v>66782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="17">
-        <v>5189</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="17">
-        <v>173137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17">
-        <v>4351.583333333333</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="17">
-        <v>267133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="21">
-        <v>4834.4319248826287</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1029734</v>
-      </c>
-    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39"/>
+      <c r="B39" s="30"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41"/>
+      <c r="B41" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35157,8 +39438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35168,286 +39449,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="24"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="24"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="24"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="24"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="24"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
